--- a/data/trans_camb/IP16A09-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A09-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,2</t>
+          <t>0,0; 11,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 0,0</t>
+          <t>-13,6; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 0,0</t>
+          <t>-15,01; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,56</t>
+          <t>-4,48; 2,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 0,0</t>
+          <t>-7,21; 0,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 6,5</t>
+          <t>-0,72; 6,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 3,67</t>
+          <t>-2,26; 4,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 1,07</t>
+          <t>-7,48; 0,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 0,54</t>
+          <t>-7,81; 0,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 2,78</t>
+          <t>-2,75; 2,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 1,4</t>
+          <t>-3,58; 1,33</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,68; —</t>
+          <t>-56,23; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-91,24; 104,3</t>
+          <t>-90,41; 69,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-93,28; 75,7</t>
+          <t>-91,23; 69,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,37; 157,84</t>
+          <t>-62,87; 166,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,33; 99,38</t>
+          <t>-77,18; 91,47</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,75; -1,82</t>
+          <t>-15,52; -1,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 1,95</t>
+          <t>-11,47; 1,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 4,16</t>
+          <t>-7,34; 4,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 0,0</t>
+          <t>-11,92; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 0,88</t>
+          <t>-8,98; 0,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 0,49</t>
+          <t>-9,09; 0,05</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 3,2</t>
+          <t>-2,14; 3,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,38</t>
+          <t>-3,15; 2,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 0,4</t>
+          <t>-5,85; 0,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,16; -0,04</t>
+          <t>-5,85; -0,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,39</t>
+          <t>-2,88; 1,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 0,3</t>
+          <t>-3,7; 0,39</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-62,6; 374,1</t>
+          <t>-67,28; 438,82</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-86,87; 322,84</t>
+          <t>-85,8; 318,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-89,4; 42,81</t>
+          <t>-88,54; 69,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-92,82; 13,27</t>
+          <t>-92,37; 23,29</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-67,57; 73,26</t>
+          <t>-65,16; 67,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-80,78; 29,87</t>
+          <t>-79,81; 34,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A09-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A09-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,41</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,7; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,24; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,47; 2,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,16; 0,0</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-1,04</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,24</t>
+          <t>-7,51; 0,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,28; 0,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 0,0</t>
+          <t>-0,86; 6,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 0,0</t>
+          <t>-2,24; 3,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 2,55</t>
+          <t>-3,28; 2,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 0,0</t>
+          <t>-3,86; 1,44</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-56,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>174,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>46,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,16%</t>
+          <t>-1,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-32,64%</t>
         </is>
       </c>
     </row>
@@ -871,17 +871,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,96; 61,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,37; 54,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,16; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -891,19 +891,19 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,06; 154,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,38; 90,55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-5,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-3,4</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 6,26</t>
+          <t>-7,18; 4,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 4,16</t>
+          <t>-11,34; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 0,96</t>
+          <t>-15,38; -1,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 0,95</t>
+          <t>-13,09; 1,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,62</t>
+          <t>-8,96; 0,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 1,33</t>
+          <t>-9,32; 0,09</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>174,15%</t>
+          <t>-10,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>46,09%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-56,27%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-57,51%</t>
+          <t>-66,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>-76,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-32,64%</t>
+          <t>-78,55%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,23; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,29 +1037,29 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-90,41; 69,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-91,23; 69,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,87; 166,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,18; 91,47</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,62</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>-1,52</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,52; -1,82</t>
+          <t>-5,45; 0,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 1,92</t>
+          <t>-6,23; 0,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 4,15</t>
+          <t>-2,11; 3,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 0,0</t>
+          <t>-3,18; 2,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 0,88</t>
+          <t>-2,99; 1,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 0,05</t>
+          <t>-3,52; 0,25</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-54,86%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-66,95%</t>
+          <t>-66,23%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-10,25%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-17,32%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-76,04%</t>
+          <t>-23,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-78,55%</t>
+          <t>-48,21%</t>
         </is>
       </c>
     </row>
@@ -1183,207 +1183,50 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,28; 40,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,77; 34,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,7; 361,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,44; 312,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,5; 69,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,79; 23,99</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-2,28</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-2,75</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-1,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-2,14; 3,26</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 2,44</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-5,85; 0,62</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-5,85; -0,05</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-2,88; 1,18</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-3,7; 0,39</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>28,23%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-16,9%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-54,86%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-66,23%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-23,71%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-48,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-67,28; 438,82</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-85,8; 318,14</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-88,54; 69,0</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-92,37; 23,29</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-65,16; 67,38</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-79,81; 34,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
